--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958865.8206773048</v>
+        <v>957355.9354745429</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22699828.87577818</v>
+        <v>22699828.8757782</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2214790.580211653</v>
+        <v>2214790.580211654</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>71.47342973339762</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>350.6173062872338</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -870,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>54.82081814646273</v>
       </c>
       <c r="W4" t="n">
-        <v>69.52913644474195</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,13 +910,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>353.6688732810862</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>84.53123883647797</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>126.7192460849969</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>114.2274546791367</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0806982601026</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>207.247385943387</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>82.85734077805898</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>59.20979741458177</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>399.6629142219268</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H11" t="n">
-        <v>10.48630020061285</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978621</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.5764026524035</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3116756443242</v>
+        <v>135.3116756443241</v>
       </c>
       <c r="I13" t="n">
         <v>76.97845642156406</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S13" t="n">
         <v>151.3932686552011</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>406.7484502155031</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>396.5836142728854</v>
       </c>
       <c r="H14" t="n">
-        <v>185.1286431330082</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.5764026524035</v>
       </c>
       <c r="H16" t="n">
-        <v>135.3116756443242</v>
+        <v>135.3116756443246</v>
       </c>
       <c r="I16" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S16" t="n">
         <v>151.3932686552011</v>
@@ -1821,7 +1821,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6290911264061</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>396.5836142728854</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>311.516956537154</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>56.50353334972839</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117704</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S19" t="n">
         <v>151.3932686552011</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.5836142728854</v>
+        <v>139.8845445017455</v>
       </c>
       <c r="H20" t="n">
         <v>278.0434075022746</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>93.67205536636641</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.063515415806592</v>
+        <v>5.06351541580615</v>
       </c>
       <c r="S22" t="n">
         <v>151.3932686552011</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897592</v>
       </c>
       <c r="T23" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529476</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S25" t="n">
         <v>151.3932686552011</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T26" t="n">
         <v>214.3635095521018</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S28" t="n">
         <v>151.3932686552011</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T29" t="n">
-        <v>214.3635095521021</v>
+        <v>214.3635095521012</v>
       </c>
       <c r="U29" t="n">
         <v>256.5660605529466</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S31" t="n">
         <v>151.3932686552011</v>
@@ -3037,7 +3037,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T32" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529476</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3207,7 +3207,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I34" t="n">
-        <v>76.97845642156429</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S34" t="n">
         <v>151.3932686552011</v>
@@ -3283,7 +3283,7 @@
         <v>396.5836142728854</v>
       </c>
       <c r="H35" t="n">
-        <v>101.3916950955677</v>
+        <v>21.34433773113473</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.063515415806592</v>
+        <v>5.06351541580615</v>
       </c>
       <c r="S37" t="n">
         <v>151.3932686552011</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199219</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>164.4374893101143</v>
+        <v>21.34433773113469</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S40" t="n">
         <v>151.3932686552011</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>75.08427492998425</v>
+        <v>46.78202478944678</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.06351541580615</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S43" t="n">
         <v>151.3932686552011</v>
@@ -3954,7 +3954,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6290911264057</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>327.3351965866959</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>338.7513549122967</v>
       </c>
       <c r="G44" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T44" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S46" t="n">
         <v>151.3932686552011</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>888.1040799405456</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>854.002011164373</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>425.4203369016413</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>395.6859961003406</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>949.4537989923044</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>530.3113355716151</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>910.3632463850494</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>943.243825464227</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4497,13 +4497,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.091239336891</v>
+        <v>1215.270229877935</v>
       </c>
       <c r="W4" t="n">
-        <v>1167.859788382606</v>
+        <v>943.243825464227</v>
       </c>
       <c r="X4" t="n">
-        <v>1167.859788382606</v>
+        <v>943.243825464227</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.4401176967148</v>
+        <v>943.243825464227</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>907.846853507573</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>873.7447847314004</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>445.1631104686687</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>415.4287696673679</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>391.6017441169797</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1408.019692669128</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W5" t="n">
-        <v>1003.164238080161</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X5" t="n">
-        <v>584.0217746594717</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8041211489747</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8041211489747</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4734,13 +4734,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1547.766370316095</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1301.886923894551</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1301.886923894551</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1014.931415764981</v>
       </c>
       <c r="W7" t="n">
-        <v>720.185388501638</v>
+        <v>1014.931415764981</v>
       </c>
       <c r="X7" t="n">
-        <v>604.8041211489747</v>
+        <v>769.5396610983935</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.8041211489747</v>
+        <v>542.1199904125018</v>
       </c>
     </row>
     <row r="8">
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4849,7 +4849,7 @@
         <v>789.5336382545983</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.2475145542517</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>358.5019935678207</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.297901441134</v>
+        <v>918.5584811903379</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>745.9967696735629</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>580.1187768750856</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>410.3607731258228</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>233.653719087579</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>233.653719087579</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>93.75154477795357</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N10" t="n">
-        <v>1349.676536110076</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V10" t="n">
-        <v>951.1357312073217</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W10" t="n">
-        <v>679.1093267936133</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X10" t="n">
-        <v>433.7175721270257</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.297901441134</v>
+        <v>1110.377099909325</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1370.967899916157</v>
+        <v>1145.732379734228</v>
       </c>
       <c r="C11" t="n">
-        <v>932.8254270995799</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="D11" t="n">
-        <v>932.8254270995799</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="E11" t="n">
-        <v>499.0506822578751</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F11" t="n">
-        <v>71.1832526670828</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G11" t="n">
-        <v>71.1832526670828</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H11" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I11" t="n">
-        <v>90.7252288730233</v>
+        <v>90.72522887302327</v>
       </c>
       <c r="J11" t="n">
         <v>593.2199906656808</v>
       </c>
       <c r="K11" t="n">
-        <v>889.7924543443196</v>
+        <v>1343.033989913169</v>
       </c>
       <c r="L11" t="n">
-        <v>1014.813300381739</v>
+        <v>1468.054835950589</v>
       </c>
       <c r="M11" t="n">
-        <v>1153.923080536473</v>
+        <v>1607.164616105323</v>
       </c>
       <c r="N11" t="n">
-        <v>1295.283802368908</v>
+        <v>1748.525337937757</v>
       </c>
       <c r="O11" t="n">
-        <v>1428.766723477139</v>
+        <v>1882.008259045989</v>
       </c>
       <c r="P11" t="n">
-        <v>2178.580722724628</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q11" t="n">
-        <v>2810.632127459412</v>
+        <v>2810.632127459411</v>
       </c>
       <c r="R11" t="n">
-        <v>3029.551512111067</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="S11" t="n">
-        <v>3029.551512111067</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="T11" t="n">
-        <v>3029.551512111067</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U11" t="n">
-        <v>3029.551512111067</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="V11" t="n">
-        <v>3029.551512111067</v>
+        <v>2385.173528508449</v>
       </c>
       <c r="W11" t="n">
-        <v>2624.6960575221</v>
+        <v>1980.318073919482</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.553594101411</v>
+        <v>1980.318073919482</v>
       </c>
       <c r="Y11" t="n">
-        <v>1797.267470401064</v>
+        <v>1572.031950219136</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G12" t="n">
-        <v>98.1497356309718</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H12" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I12" t="n">
-        <v>101.2489498138752</v>
+        <v>75.18527665341756</v>
       </c>
       <c r="J12" t="n">
-        <v>465.8550024162121</v>
+        <v>411.1499936369447</v>
       </c>
       <c r="K12" t="n">
-        <v>534.3029476545577</v>
+        <v>479.5979388752902</v>
       </c>
       <c r="L12" t="n">
-        <v>626.3396570286047</v>
+        <v>571.6346482493373</v>
       </c>
       <c r="M12" t="n">
-        <v>733.7421557769878</v>
+        <v>679.0371469977204</v>
       </c>
       <c r="N12" t="n">
-        <v>843.9872790811312</v>
+        <v>789.2822703018637</v>
       </c>
       <c r="O12" t="n">
-        <v>944.840028771343</v>
+        <v>890.1350199920755</v>
       </c>
       <c r="P12" t="n">
-        <v>1511.817181586019</v>
+        <v>971.0782429539432</v>
       </c>
       <c r="Q12" t="n">
         <v>1565.925582547988</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1125.158958727094</v>
+        <v>1125.158958727093</v>
       </c>
       <c r="C13" t="n">
-        <v>952.5972472103189</v>
+        <v>952.597247210318</v>
       </c>
       <c r="D13" t="n">
-        <v>786.7192544118416</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E13" t="n">
-        <v>616.9612506625788</v>
+        <v>616.9612506625779</v>
       </c>
       <c r="F13" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243341</v>
       </c>
       <c r="G13" t="n">
-        <v>275.025507076452</v>
+        <v>275.0255070764518</v>
       </c>
       <c r="H13" t="n">
         <v>138.3470468296598</v>
       </c>
       <c r="I13" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="J13" t="n">
         <v>172.2953727318074</v>
@@ -5205,46 +5205,46 @@
         <v>488.3413572775056</v>
       </c>
       <c r="L13" t="n">
-        <v>959.3850626138551</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M13" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N13" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O13" t="n">
         <v>2441.114070398671</v>
       </c>
       <c r="P13" t="n">
-        <v>2831.601347685256</v>
+        <v>2831.601347685255</v>
       </c>
       <c r="Q13" t="n">
-        <v>3029.551512111067</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="R13" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S13" t="n">
-        <v>2871.514356483786</v>
+        <v>2871.514356483785</v>
       </c>
       <c r="T13" t="n">
-        <v>2627.184138701844</v>
+        <v>2627.184138701843</v>
       </c>
       <c r="U13" t="n">
-        <v>2348.770915341838</v>
+        <v>2348.770915341837</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.815407212269</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W13" t="n">
         <v>1789.78900279856</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.397248131973</v>
+        <v>1544.397248131972</v>
       </c>
       <c r="Y13" t="n">
-        <v>1316.977577446081</v>
+        <v>1316.97757744608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1520.096386694335</v>
+        <v>1152.889486798447</v>
       </c>
       <c r="C14" t="n">
-        <v>1081.953913877758</v>
+        <v>1152.889486798447</v>
       </c>
       <c r="D14" t="n">
-        <v>1081.953913877758</v>
+        <v>1152.889486798447</v>
       </c>
       <c r="E14" t="n">
-        <v>648.1791690360533</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F14" t="n">
-        <v>648.1791690360533</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G14" t="n">
-        <v>247.5896596695024</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H14" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I14" t="n">
-        <v>90.7252288730233</v>
+        <v>90.72522887302328</v>
       </c>
       <c r="J14" t="n">
         <v>593.2199906656808</v>
@@ -5284,46 +5284,46 @@
         <v>1343.03398991317</v>
       </c>
       <c r="L14" t="n">
-        <v>1468.05483595059</v>
+        <v>1650.702714699876</v>
       </c>
       <c r="M14" t="n">
-        <v>1607.164616105323</v>
+        <v>1789.81249485461</v>
       </c>
       <c r="N14" t="n">
-        <v>1748.525337937758</v>
+        <v>1931.173216687044</v>
       </c>
       <c r="O14" t="n">
-        <v>1882.00825904599</v>
+        <v>2064.656137795277</v>
       </c>
       <c r="P14" t="n">
-        <v>2347.734787477685</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q14" t="n">
-        <v>2979.786192212468</v>
+        <v>2810.632127459411</v>
       </c>
       <c r="R14" t="n">
-        <v>3029.551512111067</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="S14" t="n">
-        <v>3029.551512111067</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T14" t="n">
-        <v>3029.551512111067</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.393875188898</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="V14" t="n">
-        <v>2770.393875188898</v>
+        <v>2385.17352850845</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.538420599932</v>
+        <v>1980.318073919483</v>
       </c>
       <c r="X14" t="n">
-        <v>1946.395957179242</v>
+        <v>1561.175610498794</v>
       </c>
       <c r="Y14" t="n">
-        <v>1946.395957179242</v>
+        <v>1152.889486798447</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>98.1497356309718</v>
       </c>
       <c r="H15" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I15" t="n">
-        <v>75.18527665341757</v>
+        <v>101.2489498138752</v>
       </c>
       <c r="J15" t="n">
-        <v>115.2330042895422</v>
+        <v>465.8550024162121</v>
       </c>
       <c r="K15" t="n">
-        <v>183.6809495278877</v>
+        <v>534.3029476545576</v>
       </c>
       <c r="L15" t="n">
-        <v>275.7176589019348</v>
+        <v>626.3396570286046</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1201576503178</v>
+        <v>733.7421557769877</v>
       </c>
       <c r="N15" t="n">
-        <v>493.3652809544612</v>
+        <v>843.9872790811311</v>
       </c>
       <c r="O15" t="n">
-        <v>594.218030644673</v>
+        <v>944.8400287713429</v>
       </c>
       <c r="P15" t="n">
-        <v>971.0782429539432</v>
+        <v>1025.783251733211</v>
       </c>
       <c r="Q15" t="n">
         <v>1565.925582547988</v>
@@ -5415,31 +5415,31 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C16" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103184</v>
       </c>
       <c r="D16" t="n">
-        <v>786.7192544118407</v>
+        <v>786.7192544118411</v>
       </c>
       <c r="E16" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625783</v>
       </c>
       <c r="F16" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243346</v>
       </c>
       <c r="G16" t="n">
-        <v>275.025507076452</v>
+        <v>275.0255070764523</v>
       </c>
       <c r="H16" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296597</v>
       </c>
       <c r="I16" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J16" t="n">
         <v>172.2953727318074</v>
       </c>
       <c r="K16" t="n">
-        <v>488.3413572775056</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L16" t="n">
         <v>959.3850626138546</v>
@@ -5454,22 +5454,22 @@
         <v>2441.114070398671</v>
       </c>
       <c r="P16" t="n">
-        <v>2831.601347685255</v>
+        <v>2831.601347685256</v>
       </c>
       <c r="Q16" t="n">
         <v>3029.551512111066</v>
       </c>
       <c r="R16" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S16" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T16" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U16" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V16" t="n">
         <v>2061.815407212268</v>
@@ -5481,7 +5481,7 @@
         <v>1544.397248131972</v>
       </c>
       <c r="Y16" t="n">
-        <v>1316.97757744608</v>
+        <v>1316.977577446081</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2064.280016635485</v>
+        <v>2074.555059861269</v>
       </c>
       <c r="C17" t="n">
-        <v>2064.280016635485</v>
+        <v>1636.412587044692</v>
       </c>
       <c r="D17" t="n">
-        <v>1628.370231809929</v>
+        <v>1200.502802219137</v>
       </c>
       <c r="E17" t="n">
-        <v>1194.595486968224</v>
+        <v>766.7280573774318</v>
       </c>
       <c r="F17" t="n">
-        <v>766.7280573774319</v>
+        <v>766.7280573774318</v>
       </c>
       <c r="G17" t="n">
-        <v>366.138548010881</v>
+        <v>366.1385480108809</v>
       </c>
       <c r="H17" t="n">
-        <v>85.28662124090656</v>
+        <v>85.28662124090654</v>
       </c>
       <c r="I17" t="n">
         <v>115.4208198717085</v>
@@ -5518,49 +5518,49 @@
         <v>617.915581664366</v>
       </c>
       <c r="K17" t="n">
-        <v>1553.04131486667</v>
+        <v>1179.366591768391</v>
       </c>
       <c r="L17" t="n">
-        <v>1678.06216090409</v>
+        <v>1304.387437805811</v>
       </c>
       <c r="M17" t="n">
-        <v>1817.171941058823</v>
+        <v>1443.497217960544</v>
       </c>
       <c r="N17" t="n">
-        <v>2337.64289178791</v>
+        <v>1584.857939792979</v>
       </c>
       <c r="O17" t="n">
-        <v>2471.125812896142</v>
+        <v>2640.279877649197</v>
       </c>
       <c r="P17" t="n">
-        <v>3413.360272658889</v>
+        <v>3582.514337411944</v>
       </c>
       <c r="Q17" t="n">
-        <v>4045.411677393673</v>
+        <v>4214.565742146728</v>
       </c>
       <c r="R17" t="n">
-        <v>4264.331062045328</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="S17" t="n">
-        <v>4199.09882603626</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="T17" t="n">
-        <v>3982.570028508885</v>
+        <v>4047.802264517951</v>
       </c>
       <c r="U17" t="n">
-        <v>3723.412391586716</v>
+        <v>4047.802264517951</v>
       </c>
       <c r="V17" t="n">
-        <v>3360.795441520543</v>
+        <v>3733.13867205618</v>
       </c>
       <c r="W17" t="n">
-        <v>2955.939986931576</v>
+        <v>3328.283217467213</v>
       </c>
       <c r="X17" t="n">
-        <v>2898.865710820739</v>
+        <v>2909.140754046523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2490.579587120392</v>
+        <v>2500.854630346177</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>122.845326629657</v>
       </c>
       <c r="H18" t="n">
-        <v>85.28662124090656</v>
+        <v>85.28662124090654</v>
       </c>
       <c r="I18" t="n">
-        <v>99.88086765210281</v>
+        <v>99.88086765210279</v>
       </c>
       <c r="J18" t="n">
-        <v>464.4869202544397</v>
+        <v>435.84558463563</v>
       </c>
       <c r="K18" t="n">
-        <v>532.9348654927852</v>
+        <v>504.2935298739755</v>
       </c>
       <c r="L18" t="n">
-        <v>624.9715748668324</v>
+        <v>596.3302392480226</v>
       </c>
       <c r="M18" t="n">
-        <v>732.3740736152154</v>
+        <v>703.7327379964057</v>
       </c>
       <c r="N18" t="n">
-        <v>842.6191969193588</v>
+        <v>813.9778613005491</v>
       </c>
       <c r="O18" t="n">
-        <v>943.4719466095705</v>
+        <v>914.8306109907608</v>
       </c>
       <c r="P18" t="n">
-        <v>1024.415169571438</v>
+        <v>995.7738339526286</v>
       </c>
       <c r="Q18" t="n">
-        <v>1619.262509165483</v>
+        <v>1590.621173546673</v>
       </c>
       <c r="R18" t="n">
         <v>1734.111932812592</v>
@@ -5652,10 +5652,10 @@
         <v>1149.854549725778</v>
       </c>
       <c r="C19" t="n">
-        <v>977.2928382090034</v>
+        <v>977.2928382090032</v>
       </c>
       <c r="D19" t="n">
-        <v>811.4148454105261</v>
+        <v>811.4148454105259</v>
       </c>
       <c r="E19" t="n">
         <v>641.6568416612631</v>
@@ -5670,7 +5670,7 @@
         <v>163.042637828345</v>
       </c>
       <c r="I19" t="n">
-        <v>85.28662124090656</v>
+        <v>85.28662124090654</v>
       </c>
       <c r="J19" t="n">
         <v>196.9909637304926</v>
@@ -5694,7 +5694,7 @@
         <v>2856.29693868394</v>
       </c>
       <c r="Q19" t="n">
-        <v>3054.247103109751</v>
+        <v>3054.247103109752</v>
       </c>
       <c r="R19" t="n">
         <v>3049.132441073583</v>
@@ -5718,7 +5718,7 @@
         <v>1569.092839130657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1341.673168444766</v>
+        <v>1341.673168444765</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2502.422489452061</v>
+        <v>2243.130499784243</v>
       </c>
       <c r="C20" t="n">
-        <v>2064.280016635485</v>
+        <v>1804.988026967666</v>
       </c>
       <c r="D20" t="n">
-        <v>1628.370231809929</v>
+        <v>1369.078242142111</v>
       </c>
       <c r="E20" t="n">
-        <v>1194.595486968224</v>
+        <v>935.303497300406</v>
       </c>
       <c r="F20" t="n">
-        <v>766.7280573774319</v>
+        <v>507.4360677096137</v>
       </c>
       <c r="G20" t="n">
-        <v>366.138548010881</v>
+        <v>366.1385480108809</v>
       </c>
       <c r="H20" t="n">
-        <v>85.28662124090656</v>
+        <v>85.28662124090654</v>
       </c>
       <c r="I20" t="n">
         <v>115.4208198717085</v>
@@ -5758,46 +5758,46 @@
         <v>283.4363354555743</v>
       </c>
       <c r="L20" t="n">
-        <v>1055.108890908869</v>
+        <v>1304.387437805811</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.530828765087</v>
+        <v>1443.497217960544</v>
       </c>
       <c r="N20" t="n">
-        <v>3165.952766621306</v>
+        <v>1584.857939792979</v>
       </c>
       <c r="O20" t="n">
-        <v>3299.435687729538</v>
+        <v>2640.279877649197</v>
       </c>
       <c r="P20" t="n">
-        <v>3413.360272658889</v>
+        <v>3582.514337411944</v>
       </c>
       <c r="Q20" t="n">
-        <v>4045.411677393673</v>
+        <v>4214.565742146728</v>
       </c>
       <c r="R20" t="n">
-        <v>4264.331062045328</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="S20" t="n">
-        <v>4199.09882603626</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="T20" t="n">
-        <v>4104.480588292456</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="U20" t="n">
-        <v>4104.480588292456</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="V20" t="n">
-        <v>3741.863638226282</v>
+        <v>3901.714111979153</v>
       </c>
       <c r="W20" t="n">
-        <v>3337.008183637316</v>
+        <v>3496.858657390187</v>
       </c>
       <c r="X20" t="n">
-        <v>3337.008183637316</v>
+        <v>3077.716193969497</v>
       </c>
       <c r="Y20" t="n">
-        <v>2928.722059936969</v>
+        <v>2669.430070269151</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>122.845326629657</v>
       </c>
       <c r="H21" t="n">
-        <v>85.28662124090656</v>
+        <v>85.28662124090654</v>
       </c>
       <c r="I21" t="n">
-        <v>99.88086765210281</v>
+        <v>99.88086765210279</v>
       </c>
       <c r="J21" t="n">
-        <v>464.4869202544397</v>
+        <v>435.84558463563</v>
       </c>
       <c r="K21" t="n">
-        <v>621.466307968315</v>
+        <v>504.2935298739755</v>
       </c>
       <c r="L21" t="n">
-        <v>713.5030173423622</v>
+        <v>596.3302392480226</v>
       </c>
       <c r="M21" t="n">
-        <v>820.9055160907453</v>
+        <v>703.7327379964057</v>
       </c>
       <c r="N21" t="n">
-        <v>931.1506393948887</v>
+        <v>813.9778613005491</v>
       </c>
       <c r="O21" t="n">
-        <v>1032.0033890851</v>
+        <v>914.8306109907608</v>
       </c>
       <c r="P21" t="n">
-        <v>1112.946612046968</v>
+        <v>995.7738339526286</v>
       </c>
       <c r="Q21" t="n">
-        <v>1707.793951641013</v>
+        <v>1590.621173546673</v>
       </c>
       <c r="R21" t="n">
         <v>1734.111932812592</v>
@@ -5907,22 +5907,22 @@
         <v>163.042637828345</v>
       </c>
       <c r="I22" t="n">
-        <v>85.28662124090656</v>
+        <v>85.28662124090654</v>
       </c>
       <c r="J22" t="n">
         <v>196.9909637304926</v>
       </c>
       <c r="K22" t="n">
-        <v>513.036948276191</v>
+        <v>513.0369482761909</v>
       </c>
       <c r="L22" t="n">
-        <v>984.0806536125399</v>
+        <v>984.0806536125398</v>
       </c>
       <c r="M22" t="n">
         <v>1499.27037989763</v>
       </c>
       <c r="N22" t="n">
-        <v>1995.910481338671</v>
+        <v>1995.910481338672</v>
       </c>
       <c r="O22" t="n">
         <v>2465.809661397356</v>
@@ -5931,7 +5931,7 @@
         <v>2856.29693868394</v>
       </c>
       <c r="Q22" t="n">
-        <v>3054.247103109752</v>
+        <v>3054.247103109751</v>
       </c>
       <c r="R22" t="n">
         <v>3049.132441073583</v>
@@ -5980,7 +5980,7 @@
         <v>783.058887175931</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4693778093799</v>
+        <v>382.4693778093795</v>
       </c>
       <c r="H23" t="n">
         <v>101.6174510394051</v>
@@ -5989,19 +5989,19 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J23" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K23" t="n">
-        <v>1134.117457212251</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L23" t="n">
-        <v>1259.138303249671</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M23" t="n">
-        <v>2516.654259862309</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N23" t="n">
-        <v>2658.014981694743</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O23" t="n">
         <v>3287.66730282107</v>
@@ -6016,10 +6016,10 @@
         <v>5080.872551970256</v>
       </c>
       <c r="S23" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961189</v>
       </c>
       <c r="T23" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U23" t="n">
         <v>4539.953881511644</v>
@@ -6068,25 +6068,25 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J24" t="n">
-        <v>156.259425086726</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K24" t="n">
-        <v>224.7073703250715</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L24" t="n">
-        <v>316.7440796991186</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M24" t="n">
-        <v>424.1465784475016</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N24" t="n">
-        <v>534.391701751645</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O24" t="n">
-        <v>635.2444514418568</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P24" t="n">
-        <v>1535.910840882923</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q24" t="n">
         <v>1606.952003345172</v>
@@ -6126,16 +6126,16 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C25" t="n">
-        <v>993.6236680075021</v>
+        <v>993.6236680075018</v>
       </c>
       <c r="D25" t="n">
-        <v>827.7456752090247</v>
+        <v>827.7456752090245</v>
       </c>
       <c r="E25" t="n">
         <v>657.9876714597617</v>
       </c>
       <c r="F25" t="n">
-        <v>481.2806174215181</v>
+        <v>481.2806174215179</v>
       </c>
       <c r="G25" t="n">
         <v>316.0519278736357</v>
@@ -6150,13 +6150,13 @@
         <v>213.3217935289912</v>
       </c>
       <c r="K25" t="n">
-        <v>529.3677780746892</v>
+        <v>529.3677780746895</v>
       </c>
       <c r="L25" t="n">
         <v>1000.411483411038</v>
       </c>
       <c r="M25" t="n">
-        <v>1515.601209696128</v>
+        <v>1515.601209696129</v>
       </c>
       <c r="N25" t="n">
         <v>2012.24131113717</v>
@@ -6171,7 +6171,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R25" t="n">
-        <v>3065.463270872081</v>
+        <v>3065.463270872082</v>
       </c>
       <c r="S25" t="n">
         <v>2912.540777280969</v>
@@ -6186,13 +6186,13 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W25" t="n">
-        <v>1830.815423595744</v>
+        <v>1830.815423595743</v>
       </c>
       <c r="X25" t="n">
         <v>1585.423668929156</v>
       </c>
       <c r="Y25" t="n">
-        <v>1358.003998243265</v>
+        <v>1358.003998243264</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2518.75331925056</v>
       </c>
       <c r="C26" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D26" t="n">
         <v>1644.701061608428</v>
@@ -6214,10 +6214,10 @@
         <v>1210.926316766723</v>
       </c>
       <c r="F26" t="n">
-        <v>783.058887175931</v>
+        <v>783.0588871759305</v>
       </c>
       <c r="G26" t="n">
-        <v>382.4693778093799</v>
+        <v>382.4693778093795</v>
       </c>
       <c r="H26" t="n">
         <v>101.6174510394051</v>
@@ -6226,28 +6226,28 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J26" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K26" t="n">
-        <v>299.7671652540728</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L26" t="n">
-        <v>1202.935527462303</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M26" t="n">
-        <v>2460.451484074941</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N26" t="n">
-        <v>3717.967440687579</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O26" t="n">
-        <v>4831.630028366118</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.554613295468</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q26" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R26" t="n">
         <v>5080.872551970256</v>
@@ -6268,10 +6268,10 @@
         <v>3772.481476856504</v>
       </c>
       <c r="X26" t="n">
-        <v>3353.339013435815</v>
+        <v>3353.339013435814</v>
       </c>
       <c r="Y26" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735467</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J27" t="n">
-        <v>480.8177500529383</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K27" t="n">
-        <v>549.2656952912837</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L27" t="n">
-        <v>641.3024046653309</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M27" t="n">
-        <v>748.7049034137139</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N27" t="n">
-        <v>858.9500267178573</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O27" t="n">
-        <v>959.802776408069</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P27" t="n">
-        <v>1040.745999369937</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q27" t="n">
-        <v>1635.593338963981</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R27" t="n">
         <v>1750.44276261109</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1166.185379524277</v>
+        <v>1166.185379524276</v>
       </c>
       <c r="C28" t="n">
-        <v>993.6236680075018</v>
+        <v>993.6236680075012</v>
       </c>
       <c r="D28" t="n">
-        <v>827.7456752090245</v>
+        <v>827.7456752090241</v>
       </c>
       <c r="E28" t="n">
-        <v>657.9876714597617</v>
+        <v>657.9876714597613</v>
       </c>
       <c r="F28" t="n">
-        <v>481.2806174215179</v>
+        <v>481.2806174215174</v>
       </c>
       <c r="G28" t="n">
         <v>316.0519278736357</v>
@@ -6393,40 +6393,40 @@
         <v>1000.411483411038</v>
       </c>
       <c r="M28" t="n">
-        <v>1515.601209696129</v>
+        <v>1515.601209696128</v>
       </c>
       <c r="N28" t="n">
-        <v>2012.24131113717</v>
+        <v>2012.241311137169</v>
       </c>
       <c r="O28" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195853</v>
       </c>
       <c r="P28" t="n">
-        <v>2872.627768482439</v>
+        <v>2872.627768482438</v>
       </c>
       <c r="Q28" t="n">
-        <v>3070.57793290825</v>
+        <v>3070.577932908249</v>
       </c>
       <c r="R28" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S28" t="n">
         <v>2912.540777280969</v>
       </c>
       <c r="T28" t="n">
-        <v>2668.210559499028</v>
+        <v>2668.210559499027</v>
       </c>
       <c r="U28" t="n">
-        <v>2389.797336139021</v>
+        <v>2389.79733613902</v>
       </c>
       <c r="V28" t="n">
-        <v>2102.841828009452</v>
+        <v>2102.841828009451</v>
       </c>
       <c r="W28" t="n">
         <v>1830.815423595743</v>
       </c>
       <c r="X28" t="n">
-        <v>1585.423668929156</v>
+        <v>1585.423668929155</v>
       </c>
       <c r="Y28" t="n">
         <v>1358.003998243264</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2518.753319250559</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C29" t="n">
-        <v>2080.610846433983</v>
+        <v>2080.610846433984</v>
       </c>
       <c r="D29" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E29" t="n">
         <v>1210.926316766723</v>
       </c>
       <c r="F29" t="n">
-        <v>783.0588871759305</v>
+        <v>783.058887175931</v>
       </c>
       <c r="G29" t="n">
         <v>382.4693778093795</v>
@@ -6463,25 +6463,25 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J29" t="n">
-        <v>634.2464114628646</v>
+        <v>198.9917240099467</v>
       </c>
       <c r="K29" t="n">
-        <v>735.0218527069907</v>
+        <v>1134.117457212251</v>
       </c>
       <c r="L29" t="n">
-        <v>1467.462343320958</v>
+        <v>2334.19826950253</v>
       </c>
       <c r="M29" t="n">
-        <v>2724.978299933596</v>
+        <v>2473.308049657263</v>
       </c>
       <c r="N29" t="n">
-        <v>3982.494256546234</v>
+        <v>2614.668771489698</v>
       </c>
       <c r="O29" t="n">
-        <v>4115.977177654466</v>
+        <v>3728.331359168236</v>
       </c>
       <c r="P29" t="n">
-        <v>4229.901762583817</v>
+        <v>4670.565818930984</v>
       </c>
       <c r="Q29" t="n">
         <v>4861.9531673186</v>
@@ -6493,22 +6493,22 @@
         <v>5015.640315961188</v>
       </c>
       <c r="T29" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U29" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511645</v>
       </c>
       <c r="V29" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.336931445471</v>
       </c>
       <c r="W29" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856505</v>
       </c>
       <c r="X29" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435816</v>
       </c>
       <c r="Y29" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735469</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J30" t="n">
-        <v>156.259425086726</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K30" t="n">
-        <v>224.7073703250715</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L30" t="n">
-        <v>316.7440796991186</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M30" t="n">
-        <v>424.1465784475016</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N30" t="n">
-        <v>1488.220407825463</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O30" t="n">
-        <v>1589.073157515675</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P30" t="n">
-        <v>1670.016380477542</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q30" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R30" t="n">
         <v>1750.44276261109</v>
@@ -6636,7 +6636,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O31" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P31" t="n">
         <v>2872.627768482439</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2518.75331925056</v>
+        <v>2518.753319250558</v>
       </c>
       <c r="C32" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433982</v>
       </c>
       <c r="D32" t="n">
-        <v>1644.701061608428</v>
+        <v>1644.701061608426</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.926316766723</v>
+        <v>1210.926316766721</v>
       </c>
       <c r="F32" t="n">
-        <v>783.0588871759304</v>
+        <v>783.0588871759292</v>
       </c>
       <c r="G32" t="n">
         <v>382.4693778093795</v>
@@ -6706,46 +6706,46 @@
         <v>1569.372144665169</v>
       </c>
       <c r="L32" t="n">
-        <v>1893.534213155364</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M32" t="n">
-        <v>2032.643993310097</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N32" t="n">
         <v>2174.004715142531</v>
       </c>
       <c r="O32" t="n">
-        <v>3287.66730282107</v>
+        <v>3287.667302821069</v>
       </c>
       <c r="P32" t="n">
-        <v>4229.901762583817</v>
+        <v>4229.901762583816</v>
       </c>
       <c r="Q32" t="n">
-        <v>4861.9531673186</v>
+        <v>4861.953167318599</v>
       </c>
       <c r="R32" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970255</v>
       </c>
       <c r="S32" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961187</v>
       </c>
       <c r="T32" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433811</v>
       </c>
       <c r="U32" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511642</v>
       </c>
       <c r="V32" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445469</v>
       </c>
       <c r="W32" t="n">
-        <v>3772.481476856504</v>
+        <v>3772.481476856502</v>
       </c>
       <c r="X32" t="n">
-        <v>3353.339013435815</v>
+        <v>3353.339013435813</v>
       </c>
       <c r="Y32" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735466</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.1797588318151</v>
+        <v>603.179758831815</v>
       </c>
       <c r="C33" t="n">
         <v>496.7232976684573</v>
@@ -6776,31 +6776,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I33" t="n">
-        <v>116.2116974506014</v>
+        <v>116.2116974506013</v>
       </c>
       <c r="J33" t="n">
-        <v>156.259425086726</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K33" t="n">
-        <v>224.7073703250715</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L33" t="n">
-        <v>316.7440796991186</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M33" t="n">
-        <v>424.1465784475016</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N33" t="n">
-        <v>534.391701751645</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O33" t="n">
-        <v>635.2444514418568</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P33" t="n">
-        <v>1129.277441845467</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q33" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R33" t="n">
         <v>1750.44276261109</v>
@@ -6821,10 +6821,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X33" t="n">
-        <v>850.9694391323575</v>
+        <v>850.9694391323574</v>
       </c>
       <c r="Y33" t="n">
-        <v>724.4836599115782</v>
+        <v>724.4836599115781</v>
       </c>
     </row>
     <row r="34">
@@ -6837,22 +6837,22 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C34" t="n">
-        <v>993.623668007502</v>
+        <v>993.6236680075018</v>
       </c>
       <c r="D34" t="n">
-        <v>827.7456752090247</v>
+        <v>827.7456752090245</v>
       </c>
       <c r="E34" t="n">
-        <v>657.9876714597619</v>
+        <v>657.9876714597617</v>
       </c>
       <c r="F34" t="n">
-        <v>481.2806174215182</v>
+        <v>481.2806174215179</v>
       </c>
       <c r="G34" t="n">
-        <v>316.0519278736359</v>
+        <v>316.0519278736357</v>
       </c>
       <c r="H34" t="n">
-        <v>179.3734676268438</v>
+        <v>179.3734676268435</v>
       </c>
       <c r="I34" t="n">
         <v>101.6174510394051</v>
@@ -6873,7 +6873,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O34" t="n">
-        <v>2482.140491195854</v>
+        <v>2482.140491195855</v>
       </c>
       <c r="P34" t="n">
         <v>2872.627768482439</v>
@@ -6882,7 +6882,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R34" t="n">
-        <v>3065.463270872081</v>
+        <v>3065.463270872082</v>
       </c>
       <c r="S34" t="n">
         <v>2912.540777280969</v>
@@ -6897,7 +6897,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W34" t="n">
-        <v>1830.815423595744</v>
+        <v>1830.815423595743</v>
       </c>
       <c r="X34" t="n">
         <v>1585.423668929156</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2323.986416313973</v>
+        <v>2243.130499784243</v>
       </c>
       <c r="C35" t="n">
-        <v>1885.843943497397</v>
+        <v>1804.988026967666</v>
       </c>
       <c r="D35" t="n">
-        <v>1449.934158671841</v>
+        <v>1369.078242142111</v>
       </c>
       <c r="E35" t="n">
-        <v>1016.159413830136</v>
+        <v>935.303497300406</v>
       </c>
       <c r="F35" t="n">
-        <v>588.2919842393439</v>
+        <v>507.4360677096137</v>
       </c>
       <c r="G35" t="n">
-        <v>187.7024748727931</v>
+        <v>106.8465583430628</v>
       </c>
       <c r="H35" t="n">
         <v>85.28662124090654</v>
@@ -6937,19 +6937,19 @@
         <v>115.4208198717085</v>
       </c>
       <c r="J35" t="n">
-        <v>617.915581664366</v>
+        <v>182.6608942114481</v>
       </c>
       <c r="K35" t="n">
-        <v>718.6910229084922</v>
+        <v>1117.786627413752</v>
       </c>
       <c r="L35" t="n">
-        <v>843.711868945912</v>
+        <v>2057.172389800741</v>
       </c>
       <c r="M35" t="n">
-        <v>982.8216491006453</v>
+        <v>2196.282169955475</v>
       </c>
       <c r="N35" t="n">
-        <v>1415.703875039923</v>
+        <v>2337.642891787909</v>
       </c>
       <c r="O35" t="n">
         <v>2471.125812896141</v>
@@ -6964,25 +6964,25 @@
         <v>4264.331062045327</v>
       </c>
       <c r="S35" t="n">
-        <v>4199.098826036259</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="T35" t="n">
-        <v>3982.570028508884</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="U35" t="n">
-        <v>3982.570028508884</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="V35" t="n">
-        <v>3982.570028508884</v>
+        <v>3901.714111979153</v>
       </c>
       <c r="W35" t="n">
-        <v>3577.714573919917</v>
+        <v>3496.858657390187</v>
       </c>
       <c r="X35" t="n">
-        <v>3158.572110499228</v>
+        <v>3077.716193969497</v>
       </c>
       <c r="Y35" t="n">
-        <v>2750.285986798881</v>
+        <v>2669.430070269151</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>99.88086765210279</v>
       </c>
       <c r="J36" t="n">
-        <v>139.9285952882274</v>
+        <v>435.84558463563</v>
       </c>
       <c r="K36" t="n">
-        <v>208.3765405265729</v>
+        <v>504.2935298739755</v>
       </c>
       <c r="L36" t="n">
-        <v>300.41324990062</v>
+        <v>596.3302392480226</v>
       </c>
       <c r="M36" t="n">
-        <v>407.815748649003</v>
+        <v>703.7327379964057</v>
       </c>
       <c r="N36" t="n">
-        <v>518.0608719531464</v>
+        <v>813.9778613005491</v>
       </c>
       <c r="O36" t="n">
-        <v>753.0191612379779</v>
+        <v>914.8306109907608</v>
       </c>
       <c r="P36" t="n">
-        <v>1653.685550679044</v>
+        <v>995.7738339526286</v>
       </c>
       <c r="Q36" t="n">
-        <v>1707.793951641013</v>
+        <v>1590.621173546673</v>
       </c>
       <c r="R36" t="n">
         <v>1734.111932812592</v>
@@ -7180,16 +7180,16 @@
         <v>718.6910229084922</v>
       </c>
       <c r="L38" t="n">
-        <v>1135.233373052755</v>
+        <v>1774.112960764711</v>
       </c>
       <c r="M38" t="n">
-        <v>1274.343153207489</v>
+        <v>1913.222740919444</v>
       </c>
       <c r="N38" t="n">
-        <v>1415.703875039923</v>
+        <v>2968.644678775662</v>
       </c>
       <c r="O38" t="n">
-        <v>2471.125812896141</v>
+        <v>3102.127599883894</v>
       </c>
       <c r="P38" t="n">
         <v>3413.360272658888</v>
@@ -7201,25 +7201,25 @@
         <v>4264.331062045327</v>
       </c>
       <c r="S38" t="n">
-        <v>4199.098826036259</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="T38" t="n">
-        <v>3982.570028508884</v>
+        <v>4264.331062045327</v>
       </c>
       <c r="U38" t="n">
-        <v>3816.471554458263</v>
+        <v>4242.77112494317</v>
       </c>
       <c r="V38" t="n">
-        <v>3453.85460439209</v>
+        <v>3880.154174876997</v>
       </c>
       <c r="W38" t="n">
-        <v>3048.999149803123</v>
+        <v>3475.29872028803</v>
       </c>
       <c r="X38" t="n">
-        <v>2629.856686382434</v>
+        <v>3056.156256867341</v>
       </c>
       <c r="Y38" t="n">
-        <v>2221.570562682087</v>
+        <v>2647.870133166994</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>99.88086765210279</v>
       </c>
       <c r="J39" t="n">
-        <v>139.9285952882274</v>
+        <v>435.84558463563</v>
       </c>
       <c r="K39" t="n">
-        <v>208.3765405265729</v>
+        <v>504.2935298739755</v>
       </c>
       <c r="L39" t="n">
-        <v>300.41324990062</v>
+        <v>596.3302392480226</v>
       </c>
       <c r="M39" t="n">
-        <v>1355.835187756838</v>
+        <v>703.7327379964057</v>
       </c>
       <c r="N39" t="n">
-        <v>1466.080311060982</v>
+        <v>813.9778613005491</v>
       </c>
       <c r="O39" t="n">
-        <v>1572.742327717176</v>
+        <v>914.8306109907608</v>
       </c>
       <c r="P39" t="n">
-        <v>1653.685550679044</v>
+        <v>995.7738339526286</v>
       </c>
       <c r="Q39" t="n">
-        <v>1707.793951641013</v>
+        <v>1590.621173546673</v>
       </c>
       <c r="R39" t="n">
         <v>1734.111932812592</v>
@@ -7332,19 +7332,19 @@
         <v>85.28662124090654</v>
       </c>
       <c r="J40" t="n">
-        <v>196.9909637304927</v>
+        <v>196.9909637304926</v>
       </c>
       <c r="K40" t="n">
-        <v>513.036948276191</v>
+        <v>513.0369482761909</v>
       </c>
       <c r="L40" t="n">
-        <v>984.0806536125399</v>
+        <v>984.0806536125398</v>
       </c>
       <c r="M40" t="n">
         <v>1499.27037989763</v>
       </c>
       <c r="N40" t="n">
-        <v>1995.910481338671</v>
+        <v>1995.910481338672</v>
       </c>
       <c r="O40" t="n">
         <v>2465.809661397356</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1008.350949849982</v>
+        <v>1661.204254531419</v>
       </c>
       <c r="C41" t="n">
-        <v>570.2084770334052</v>
+        <v>1223.061781714842</v>
       </c>
       <c r="D41" t="n">
-        <v>570.2084770334052</v>
+        <v>1223.061781714842</v>
       </c>
       <c r="E41" t="n">
-        <v>136.4337321917004</v>
+        <v>789.2870368731374</v>
       </c>
       <c r="F41" t="n">
-        <v>60.59103024222132</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G41" t="n">
-        <v>60.59103024222132</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H41" t="n">
         <v>60.59103024222132</v>
@@ -7414,19 +7414,19 @@
         <v>593.2199906656808</v>
       </c>
       <c r="K41" t="n">
-        <v>693.9954319098068</v>
+        <v>1343.03398991317</v>
       </c>
       <c r="L41" t="n">
-        <v>1443.809431157296</v>
+        <v>1468.054835950589</v>
       </c>
       <c r="M41" t="n">
-        <v>1582.919211312029</v>
+        <v>1607.164616105323</v>
       </c>
       <c r="N41" t="n">
-        <v>1724.279933144464</v>
+        <v>1748.525337937758</v>
       </c>
       <c r="O41" t="n">
-        <v>1857.762854252696</v>
+        <v>1882.008259045989</v>
       </c>
       <c r="P41" t="n">
         <v>2178.580722724627</v>
@@ -7438,25 +7438,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S41" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.551512111066</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U41" t="n">
-        <v>3029.551512111066</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="V41" t="n">
-        <v>2666.934562044893</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="W41" t="n">
-        <v>2262.079107455926</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="X41" t="n">
-        <v>1842.936644035236</v>
+        <v>2069.490378231766</v>
       </c>
       <c r="Y41" t="n">
-        <v>1434.65052033489</v>
+        <v>1661.204254531419</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>60.59103024222132</v>
       </c>
       <c r="I42" t="n">
-        <v>101.2489498138752</v>
+        <v>75.18527665341756</v>
       </c>
       <c r="J42" t="n">
-        <v>465.8550024162121</v>
+        <v>439.7913292557545</v>
       </c>
       <c r="K42" t="n">
-        <v>534.3029476545576</v>
+        <v>508.2392744941</v>
       </c>
       <c r="L42" t="n">
-        <v>626.3396570286046</v>
+        <v>600.2759838681471</v>
       </c>
       <c r="M42" t="n">
-        <v>733.7421557769877</v>
+        <v>707.6784826165302</v>
       </c>
       <c r="N42" t="n">
-        <v>1330.02120893394</v>
+        <v>817.9236059206736</v>
       </c>
       <c r="O42" t="n">
-        <v>1430.873958624151</v>
+        <v>918.7763556108854</v>
       </c>
       <c r="P42" t="n">
-        <v>1511.817181586019</v>
+        <v>999.7195785727531</v>
       </c>
       <c r="Q42" t="n">
         <v>1565.925582547988</v>
@@ -7548,19 +7548,19 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C43" t="n">
-        <v>952.5972472103182</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D43" t="n">
-        <v>786.7192544118409</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E43" t="n">
         <v>616.9612506625781</v>
       </c>
       <c r="F43" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243344</v>
       </c>
       <c r="G43" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764515</v>
       </c>
       <c r="H43" t="n">
         <v>138.3470468296598</v>
@@ -7581,7 +7581,7 @@
         <v>1474.574788898945</v>
       </c>
       <c r="N43" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O43" t="n">
         <v>2441.114070398671</v>
@@ -7596,10 +7596,10 @@
         <v>3024.436850074898</v>
       </c>
       <c r="S43" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T43" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U43" t="n">
         <v>2348.770915341838</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>791.8221523226065</v>
+        <v>1710.591118496055</v>
       </c>
       <c r="C44" t="n">
-        <v>791.8221523226065</v>
+        <v>1272.448645679478</v>
       </c>
       <c r="D44" t="n">
-        <v>461.1805396087722</v>
+        <v>836.5388608539229</v>
       </c>
       <c r="E44" t="n">
-        <v>461.1805396087722</v>
+        <v>402.764116012218</v>
       </c>
       <c r="F44" t="n">
-        <v>461.1805396087722</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="G44" t="n">
         <v>60.59103024222132</v>
@@ -7651,16 +7651,16 @@
         <v>593.2199906656808</v>
       </c>
       <c r="K44" t="n">
-        <v>693.9954319098068</v>
+        <v>1343.03398991317</v>
       </c>
       <c r="L44" t="n">
-        <v>1443.809431157296</v>
+        <v>1650.702714699876</v>
       </c>
       <c r="M44" t="n">
-        <v>1582.919211312029</v>
+        <v>1789.81249485461</v>
       </c>
       <c r="N44" t="n">
-        <v>1724.279933144464</v>
+        <v>1931.173216687044</v>
       </c>
       <c r="O44" t="n">
         <v>2064.656137795277</v>
@@ -7675,25 +7675,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S44" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T44" t="n">
-        <v>2813.022714583691</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U44" t="n">
-        <v>2813.022714583691</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="V44" t="n">
-        <v>2450.405764517517</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="W44" t="n">
-        <v>2045.55030992855</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="X44" t="n">
-        <v>1626.407846507861</v>
+        <v>2545.176812681309</v>
       </c>
       <c r="Y44" t="n">
-        <v>1218.121722807514</v>
+        <v>2136.890688980963</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>75.18527665341756</v>
       </c>
       <c r="J45" t="n">
-        <v>115.2330042895422</v>
+        <v>411.1499936369447</v>
       </c>
       <c r="K45" t="n">
-        <v>864.414469598265</v>
+        <v>479.5979388752902</v>
       </c>
       <c r="L45" t="n">
-        <v>956.4511789723121</v>
+        <v>571.6346482493373</v>
       </c>
       <c r="M45" t="n">
-        <v>1063.853677720695</v>
+        <v>679.0371469977204</v>
       </c>
       <c r="N45" t="n">
-        <v>1174.098801024839</v>
+        <v>789.2822703018637</v>
       </c>
       <c r="O45" t="n">
-        <v>1274.95155071505</v>
+        <v>890.1350199920755</v>
       </c>
       <c r="P45" t="n">
-        <v>1355.894773676918</v>
+        <v>971.0782429539432</v>
       </c>
       <c r="Q45" t="n">
-        <v>1683.098360642327</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R45" t="n">
         <v>1709.416341813906</v>
@@ -7806,13 +7806,13 @@
         <v>60.59103024222132</v>
       </c>
       <c r="J46" t="n">
-        <v>172.2953727318076</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K46" t="n">
-        <v>488.3413572775058</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L46" t="n">
-        <v>959.3850626138548</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M46" t="n">
         <v>1474.574788898945</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8382,16 +8382,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>298.4303698644312</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,10 +8455,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8619,19 +8619,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>197.7747701358714</v>
+        <v>655.5945030336994</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>642.312539715291</v>
+        <v>184.492806817462</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>490.943363487685</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8929,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>655.5945030337</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>184.4928068174615</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>355.3554984872167</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>298.906049845861</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9166,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>465.3288574342409</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>382.9396251481335</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>931.251532068673</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>89.4256994702323</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>653.1835448645202</v>
+        <v>904.9800568816328</v>
       </c>
       <c r="M20" t="n">
-        <v>925.5678360621062</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>923.294157599782</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>931.251532068673</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K21" t="n">
-        <v>89.42569947023219</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,13 +9646,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O23" t="n">
-        <v>501.1812121394896</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>17.10379949523258</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>786.0075920917275</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.429530081014</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>89.42569947023253</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>613.555196541967</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1127.429530081014</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>106.9037672842705</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>963.4633394685032</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645591</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>201.1527499522981</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>201.1527499522972</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>417.2623913552954</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>822.5908245955243</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>294.4661657644881</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>931.251532068673</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>135.4601410046664</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>294.4661657644879</v>
+        <v>939.799082645251</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>923.2941575997816</v>
       </c>
       <c r="O38" t="n">
-        <v>931.251532068673</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>199.3010988339829</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>957.5953930382176</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5.867946430285201</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908077</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L41" t="n">
-        <v>631.104195161686</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>208.9831146894758</v>
+        <v>184.492806817462</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>490.9433634876852</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>517.2703060740059</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11226,7 +11226,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11299,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L44" t="n">
-        <v>631.104195161686</v>
+        <v>184.4928068174615</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>208.9831146894755</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>275.8537232357985</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908085</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,7 +11463,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>34.09813386648415</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5571073016618</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>22.68854717778464</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>92.91476436926641</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>47.47382402835774</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>358.447505436754</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>256.6990697711399</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T20" t="n">
-        <v>120.6914541857354</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U20" t="n">
         <v>256.5660605529466</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>176.651712406707</v>
+        <v>256.6990697711399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U35" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U38" t="n">
-        <v>92.12857124283229</v>
+        <v>235.2217228218119</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>348.5044803649001</v>
+        <v>376.8067305054375</v>
       </c>
       <c r="G41" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>104.215490390604</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>84.83740038258759</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H44" t="n">
         <v>278.0434075022746</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U44" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>560532.3675290268</v>
+        <v>560532.3675290267</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>560532.3675290268</v>
+        <v>560532.3675290267</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>415514.1729150666</v>
+      </c>
+      <c r="C2" t="n">
         <v>415514.1729150665</v>
       </c>
-      <c r="C2" t="n">
-        <v>415514.1729150668</v>
-      </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
         <v>292739.2486156308</v>
@@ -26328,28 +26328,28 @@
         <v>292739.2486156308</v>
       </c>
       <c r="G2" t="n">
-        <v>366642.827248099</v>
+        <v>366642.8272480991</v>
       </c>
       <c r="H2" t="n">
-        <v>366642.8272480992</v>
+        <v>366642.8272480991</v>
       </c>
       <c r="I2" t="n">
         <v>415514.1729150665</v>
       </c>
       <c r="J2" t="n">
+        <v>415514.1729150666</v>
+      </c>
+      <c r="K2" t="n">
         <v>415514.1729150665</v>
       </c>
-      <c r="K2" t="n">
-        <v>415514.1729150666</v>
-      </c>
       <c r="L2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="M2" t="n">
+        <v>366642.827248099</v>
+      </c>
+      <c r="N2" t="n">
         <v>366642.8272480991</v>
-      </c>
-      <c r="N2" t="n">
-        <v>366642.827248099</v>
       </c>
       <c r="O2" t="n">
         <v>292739.2486156308</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84608.63823593299</v>
+        <v>84608.63823593294</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54283.8823855817</v>
+        <v>54283.88238558178</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>32136.51251477851</v>
+        <v>32136.51251477846</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>236621.7058186226</v>
       </c>
       <c r="E4" t="n">
-        <v>73087.69696749042</v>
+        <v>73087.6969674904</v>
       </c>
       <c r="F4" t="n">
-        <v>73087.69696749042</v>
+        <v>73087.6969674904</v>
       </c>
       <c r="G4" t="n">
-        <v>99989.94129657796</v>
+        <v>99989.94129657792</v>
       </c>
       <c r="H4" t="n">
-        <v>99989.94129657798</v>
+        <v>99989.94129657792</v>
       </c>
       <c r="I4" t="n">
         <v>117779.9983703019</v>
       </c>
       <c r="J4" t="n">
+        <v>117779.9983703019</v>
+      </c>
+      <c r="K4" t="n">
+        <v>117779.9983703019</v>
+      </c>
+      <c r="L4" t="n">
         <v>117779.9983703018</v>
-      </c>
-      <c r="K4" t="n">
-        <v>117779.9983703018</v>
-      </c>
-      <c r="L4" t="n">
-        <v>117779.9983703019</v>
       </c>
       <c r="M4" t="n">
         <v>99989.94129657795</v>
@@ -26456,10 +26456,10 @@
         <v>99989.94129657795</v>
       </c>
       <c r="O4" t="n">
+        <v>73087.69696749041</v>
+      </c>
+      <c r="P4" t="n">
         <v>73087.6969674904</v>
-      </c>
-      <c r="P4" t="n">
-        <v>73087.69696749041</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>50388.67788301278</v>
+        <v>50388.67788301277</v>
       </c>
       <c r="F5" t="n">
-        <v>50388.67788301278</v>
+        <v>50388.67788301277</v>
       </c>
       <c r="G5" t="n">
-        <v>69157.32704201354</v>
+        <v>69157.32704201352</v>
       </c>
       <c r="H5" t="n">
-        <v>69157.32704201354</v>
+        <v>69157.32704201352</v>
       </c>
       <c r="I5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="J5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="K5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="L5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887243</v>
       </c>
       <c r="M5" t="n">
         <v>69157.32704201352</v>
@@ -26524,46 +26524,46 @@
         <v>-22723.62170048831</v>
       </c>
       <c r="C6" t="n">
-        <v>119467.6789592218</v>
+        <v>119467.6789592216</v>
       </c>
       <c r="D6" t="n">
-        <v>119467.6789592218</v>
+        <v>119467.6789592216</v>
       </c>
       <c r="E6" t="n">
-        <v>-90115.99389550887</v>
+        <v>-90512.04203841028</v>
       </c>
       <c r="F6" t="n">
-        <v>169262.8737651276</v>
+        <v>168866.8256222262</v>
       </c>
       <c r="G6" t="n">
-        <v>112886.9206735746</v>
+        <v>112729.2711714232</v>
       </c>
       <c r="H6" t="n">
-        <v>197495.5589095077</v>
+        <v>197337.9094073562</v>
       </c>
       <c r="I6" t="n">
-        <v>161881.5344703106</v>
+        <v>161881.5344703104</v>
       </c>
       <c r="J6" t="n">
         <v>105150.9515109021</v>
       </c>
       <c r="K6" t="n">
-        <v>216165.4168558923</v>
+        <v>216165.4168558922</v>
       </c>
       <c r="L6" t="n">
-        <v>216165.4168558923</v>
+        <v>216165.4168558924</v>
       </c>
       <c r="M6" t="n">
-        <v>165359.0463947292</v>
+        <v>165201.3968925776</v>
       </c>
       <c r="N6" t="n">
-        <v>197495.5589095076</v>
+        <v>197337.9094073561</v>
       </c>
       <c r="O6" t="n">
-        <v>169262.8737651276</v>
+        <v>168866.8256222262</v>
       </c>
       <c r="P6" t="n">
-        <v>169262.8737651276</v>
+        <v>168866.8256222262</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>757.3878780277666</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="F4" t="n">
-        <v>757.3878780277666</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="G4" t="n">
         <v>1066.082765511332</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.0920205076623</v>
+        <v>333.0920205076621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>308.6948874835653</v>
+        <v>308.6948874835651</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>204.135372481232</v>
+        <v>204.1353724812323</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201044</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>128.9566480264302</v>
+        <v>128.95664802643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.0920205076623</v>
+        <v>333.0920205076621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>308.6948874835653</v>
+        <v>308.6948874835651</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>352.1153255614867</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.58595617610933</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>229.2651349018111</v>
       </c>
       <c r="W4" t="n">
-        <v>199.7770039248294</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>43.7149797818825</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.71868052833514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>30.92970892998639</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7103824407849</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196.9558765199561</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>196.9558765199561</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.97875362354833</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>28.56355231848964</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K11" t="n">
         <v>101.7933749940668</v>
@@ -31770,25 +31770,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N11" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P11" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R11" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S11" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T11" t="n">
         <v>3.503045303589929</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H12" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I12" t="n">
         <v>14.74166304161237</v>
@@ -31843,10 +31843,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M12" t="n">
         <v>108.4873724731142</v>
@@ -31858,22 +31858,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S12" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T12" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H13" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I13" t="n">
         <v>10.79489331150735</v>
@@ -31922,16 +31922,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K13" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L13" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M13" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N13" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O13" t="n">
         <v>50.73730387161918</v>
@@ -31943,13 +31943,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R13" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S13" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T13" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U13" t="n">
         <v>0.01957961301966268</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H14" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I14" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K14" t="n">
         <v>101.7933749940668</v>
@@ -32007,25 +32007,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P14" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R14" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S14" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T14" t="n">
         <v>3.503045303589929</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H15" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I15" t="n">
         <v>14.74166304161237</v>
@@ -32080,10 +32080,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L15" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731142</v>
@@ -32095,22 +32095,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S15" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T15" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H16" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I16" t="n">
         <v>10.79489331150735</v>
@@ -32159,16 +32159,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K16" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L16" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M16" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N16" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O16" t="n">
         <v>50.73730387161918</v>
@@ -32180,13 +32180,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R16" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S16" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T16" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U16" t="n">
         <v>0.01957961301966268</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H17" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I17" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K17" t="n">
         <v>101.7933749940668</v>
@@ -32244,25 +32244,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O17" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P17" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S17" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T17" t="n">
         <v>3.503045303589929</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H18" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I18" t="n">
         <v>14.74166304161237</v>
@@ -32317,10 +32317,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L18" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M18" t="n">
         <v>108.4873724731142</v>
@@ -32332,22 +32332,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R18" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S18" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T18" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H19" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I19" t="n">
         <v>10.79489331150735</v>
@@ -32396,16 +32396,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K19" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L19" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M19" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N19" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O19" t="n">
         <v>50.73730387161918</v>
@@ -32417,13 +32417,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R19" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S19" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T19" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U19" t="n">
         <v>0.01957961301966268</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H20" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I20" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K20" t="n">
         <v>101.7933749940668</v>
@@ -32481,25 +32481,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P20" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S20" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T20" t="n">
         <v>3.503045303589929</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H21" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I21" t="n">
         <v>14.74166304161237</v>
@@ -32554,10 +32554,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L21" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731142</v>
@@ -32569,22 +32569,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R21" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S21" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T21" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H22" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I22" t="n">
         <v>10.79489331150735</v>
@@ -32633,16 +32633,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K22" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L22" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M22" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N22" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O22" t="n">
         <v>50.73730387161918</v>
@@ -32654,13 +32654,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R22" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S22" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T22" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U22" t="n">
         <v>0.01957961301966268</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H23" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I23" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K23" t="n">
         <v>101.7933749940668</v>
@@ -32718,25 +32718,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M23" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O23" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P23" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S23" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T23" t="n">
         <v>3.503045303589929</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H24" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I24" t="n">
         <v>14.74166304161237</v>
@@ -32791,10 +32791,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M24" t="n">
         <v>108.4873724731142</v>
@@ -32806,22 +32806,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T24" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H25" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I25" t="n">
         <v>10.79489331150735</v>
@@ -32870,16 +32870,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K25" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M25" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N25" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O25" t="n">
         <v>50.73730387161918</v>
@@ -32891,13 +32891,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R25" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T25" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U25" t="n">
         <v>0.01957961301966268</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H26" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I26" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K26" t="n">
         <v>101.7933749940668</v>
@@ -32955,25 +32955,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O26" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P26" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S26" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T26" t="n">
         <v>3.503045303589929</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H27" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I27" t="n">
         <v>14.74166304161237</v>
@@ -33028,10 +33028,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L27" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M27" t="n">
         <v>108.4873724731142</v>
@@ -33043,22 +33043,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T27" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H28" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I28" t="n">
         <v>10.79489331150735</v>
@@ -33107,16 +33107,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K28" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M28" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O28" t="n">
         <v>50.73730387161918</v>
@@ -33128,13 +33128,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R28" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T28" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U28" t="n">
         <v>0.01957961301966268</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H29" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I29" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K29" t="n">
         <v>101.7933749940668</v>
@@ -33192,25 +33192,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M29" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N29" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P29" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S29" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T29" t="n">
         <v>3.503045303589929</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H30" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I30" t="n">
         <v>14.74166304161237</v>
@@ -33265,10 +33265,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K30" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L30" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M30" t="n">
         <v>108.4873724731142</v>
@@ -33280,22 +33280,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S30" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T30" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,7 +33335,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H31" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I31" t="n">
         <v>10.79489331150735</v>
@@ -33344,16 +33344,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K31" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L31" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M31" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N31" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O31" t="n">
         <v>50.73730387161918</v>
@@ -33365,13 +33365,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R31" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S31" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T31" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U31" t="n">
         <v>0.01957961301966268</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H32" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I32" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K32" t="n">
         <v>101.7933749940668</v>
@@ -33429,25 +33429,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P32" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R32" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S32" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T32" t="n">
         <v>3.503045303589929</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H33" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I33" t="n">
         <v>14.74166304161237</v>
@@ -33502,10 +33502,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L33" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M33" t="n">
         <v>108.4873724731142</v>
@@ -33517,22 +33517,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R33" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S33" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T33" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H34" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I34" t="n">
         <v>10.79489331150735</v>
@@ -33581,16 +33581,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K34" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L34" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M34" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N34" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O34" t="n">
         <v>50.73730387161918</v>
@@ -33602,13 +33602,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R34" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S34" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T34" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U34" t="n">
         <v>0.01957961301966268</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H35" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I35" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K35" t="n">
         <v>101.7933749940668</v>
@@ -33666,25 +33666,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O35" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P35" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R35" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S35" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T35" t="n">
         <v>3.503045303589929</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H36" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I36" t="n">
         <v>14.74166304161237</v>
@@ -33739,10 +33739,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K36" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L36" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M36" t="n">
         <v>108.4873724731142</v>
@@ -33754,22 +33754,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S36" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T36" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H37" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I37" t="n">
         <v>10.79489331150735</v>
@@ -33818,16 +33818,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K37" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L37" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M37" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N37" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O37" t="n">
         <v>50.73730387161918</v>
@@ -33839,13 +33839,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R37" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S37" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T37" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U37" t="n">
         <v>0.01957961301966268</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H38" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I38" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K38" t="n">
         <v>101.7933749940668</v>
@@ -33903,25 +33903,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O38" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P38" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R38" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S38" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T38" t="n">
         <v>3.503045303589929</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H39" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I39" t="n">
         <v>14.74166304161237</v>
@@ -33976,10 +33976,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L39" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M39" t="n">
         <v>108.4873724731142</v>
@@ -33991,22 +33991,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R39" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S39" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T39" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H40" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I40" t="n">
         <v>10.79489331150735</v>
@@ -34055,16 +34055,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K40" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L40" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M40" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N40" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O40" t="n">
         <v>50.73730387161918</v>
@@ -34076,13 +34076,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R40" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S40" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T40" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U40" t="n">
         <v>0.01957961301966268</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H41" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J41" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K41" t="n">
         <v>101.7933749940668</v>
@@ -34140,25 +34140,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O41" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P41" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R41" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S41" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T41" t="n">
         <v>3.503045303589929</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H42" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I42" t="n">
         <v>14.74166304161237</v>
@@ -34213,10 +34213,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L42" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M42" t="n">
         <v>108.4873724731142</v>
@@ -34228,22 +34228,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R42" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S42" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T42" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H43" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I43" t="n">
         <v>10.79489331150735</v>
@@ -34292,16 +34292,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K43" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L43" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M43" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N43" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O43" t="n">
         <v>50.73730387161918</v>
@@ -34313,13 +34313,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R43" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S43" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T43" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U43" t="n">
         <v>0.01957961301966268</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H44" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I44" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K44" t="n">
         <v>101.7933749940668</v>
@@ -34377,25 +34377,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P44" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R44" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S44" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T44" t="n">
         <v>3.503045303589929</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H45" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I45" t="n">
         <v>14.74166304161237</v>
@@ -34450,10 +34450,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M45" t="n">
         <v>108.4873724731142</v>
@@ -34465,22 +34465,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S45" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T45" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H46" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I46" t="n">
         <v>10.79489331150735</v>
@@ -34529,16 +34529,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K46" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L46" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M46" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N46" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O46" t="n">
         <v>50.73730387161918</v>
@@ -34550,13 +34550,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R46" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S46" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T46" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U46" t="n">
         <v>0.01957961301966268</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35102,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>298.4303698644312</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,10 +35175,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J11" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K11" t="n">
-        <v>299.5681451299382</v>
+        <v>757.3878780277663</v>
       </c>
       <c r="L11" t="n">
         <v>126.2836828660807</v>
@@ -35424,10 +35424,10 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P11" t="n">
-        <v>757.3878780277666</v>
+        <v>299.5681451299374</v>
       </c>
       <c r="Q11" t="n">
         <v>638.4357623583669</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>41.06860562793317</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J12" t="n">
-        <v>368.2889420225626</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K12" t="n">
         <v>69.1393386245914</v>
@@ -35506,10 +35506,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P12" t="n">
-        <v>572.7041947622989</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R12" t="n">
         <v>144.9401608746653</v>
@@ -35573,22 +35573,22 @@
         <v>319.238368227978</v>
       </c>
       <c r="L13" t="n">
-        <v>475.8017225619692</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M13" t="n">
         <v>520.3936629142327</v>
       </c>
       <c r="N13" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O13" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P13" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.9496610361725</v>
+        <v>199.9496610361721</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J14" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K14" t="n">
-        <v>757.3878780277668</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="L14" t="n">
-        <v>126.2836828660807</v>
+        <v>310.7764896835422</v>
       </c>
       <c r="M14" t="n">
         <v>140.5149294492257</v>
@@ -35661,16 +35661,16 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P14" t="n">
-        <v>470.4308367996921</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q14" t="n">
         <v>638.4357623583674</v>
       </c>
       <c r="R14" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.74166304161236</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749962</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459137</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L15" t="n">
         <v>92.96637310509811</v>
@@ -35737,16 +35737,16 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N15" t="n">
-        <v>111.3587104082257</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O15" t="n">
-        <v>101.8714643335473</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P15" t="n">
-        <v>380.666881120475</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q15" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R15" t="n">
         <v>144.9401608746653</v>
@@ -35819,13 +35819,13 @@
         <v>501.6566681222644</v>
       </c>
       <c r="O16" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229139</v>
       </c>
       <c r="P16" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.9496610361725</v>
+        <v>199.9496610361721</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J17" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K17" t="n">
-        <v>944.5714476790952</v>
+        <v>567.1222324283078</v>
       </c>
       <c r="L17" t="n">
         <v>126.2836828660807</v>
@@ -35895,19 +35895,19 @@
         <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
-        <v>525.7282330596836</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
-        <v>134.8312334426587</v>
+        <v>1066.082765511332</v>
       </c>
       <c r="P17" t="n">
         <v>951.7519795583303</v>
       </c>
       <c r="Q17" t="n">
-        <v>638.4357623583669</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R17" t="n">
-        <v>221.1306915673281</v>
+        <v>50.26799989757455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J18" t="n">
-        <v>368.2889420225626</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K18" t="n">
         <v>69.1393386245914</v>
@@ -35986,7 +35986,7 @@
         <v>600.8558985798429</v>
       </c>
       <c r="R18" t="n">
-        <v>116.0095188354635</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>394.4315932187719</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K20" t="n">
         <v>101.7933749940669</v>
       </c>
       <c r="L20" t="n">
-        <v>779.4672277306007</v>
+        <v>1031.263739747713</v>
       </c>
       <c r="M20" t="n">
+        <v>140.5149294492257</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142.7886079115501</v>
+      </c>
+      <c r="O20" t="n">
         <v>1066.082765511332</v>
       </c>
-      <c r="N20" t="n">
-        <v>1066.082765511332</v>
-      </c>
-      <c r="O20" t="n">
-        <v>134.8312334426587</v>
-      </c>
       <c r="P20" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q20" t="n">
-        <v>638.4357623583669</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R20" t="n">
-        <v>221.1306915673281</v>
+        <v>50.26799989757455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J21" t="n">
-        <v>368.2889420225626</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K21" t="n">
-        <v>158.5650380948236</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L21" t="n">
         <v>92.96637310509811</v>
@@ -36217,13 +36217,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q21" t="n">
         <v>600.8558985798429</v>
       </c>
       <c r="R21" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K22" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L22" t="n">
         <v>475.8017225619686</v>
       </c>
       <c r="M22" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N22" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O22" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P22" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q22" t="n">
         <v>199.9496610361725</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K23" t="n">
-        <v>944.5714476790952</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L23" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M23" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>142.7886079115501</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O23" t="n">
-        <v>636.0124455821483</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P23" t="n">
         <v>951.7519795583303</v>
@@ -36436,7 +36436,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J24" t="n">
-        <v>40.4522501374996</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K24" t="n">
         <v>69.1393386245914</v>
@@ -36454,10 +36454,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P24" t="n">
-        <v>909.7640297384504</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.75874996186781</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R24" t="n">
         <v>144.9401608746653</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>112.8326691814</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K25" t="n">
-        <v>319.2383682279778</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L25" t="n">
-        <v>475.8017225619685</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M25" t="n">
         <v>520.3936629142324</v>
@@ -36530,13 +36530,13 @@
         <v>501.6566681222644</v>
       </c>
       <c r="O25" t="n">
-        <v>474.6456364229139</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P25" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L26" t="n">
-        <v>912.291274957808</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M26" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
-        <v>1270.218137992564</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O26" t="n">
         <v>1124.911704725796</v>
       </c>
       <c r="P26" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J27" t="n">
-        <v>368.2889420225626</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459135</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L27" t="n">
         <v>92.96637310509811</v>
@@ -36697,7 +36697,7 @@
         <v>600.8558985798429</v>
       </c>
       <c r="R27" t="n">
-        <v>116.0095188354637</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,19 +36761,19 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M28" t="n">
-        <v>520.3936629142324</v>
+        <v>520.393662914232</v>
       </c>
       <c r="N28" t="n">
-        <v>501.6566681222646</v>
+        <v>501.6566681222639</v>
       </c>
       <c r="O28" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P28" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q28" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J29" t="n">
-        <v>507.5704664572298</v>
+        <v>67.91926700983799</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790952</v>
       </c>
       <c r="L29" t="n">
-        <v>739.8388794080477</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M29" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N29" t="n">
-        <v>1270.218137992564</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426587</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P29" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583307</v>
       </c>
       <c r="Q29" t="n">
-        <v>638.4357623583674</v>
+        <v>193.3205539268856</v>
       </c>
       <c r="R29" t="n">
         <v>221.1306915673285</v>
@@ -36910,7 +36910,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J30" t="n">
-        <v>40.4522501374996</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K30" t="n">
         <v>69.1393386245914</v>
@@ -36922,19 +36922,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N30" t="n">
-        <v>1074.822049876729</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O30" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,19 +36998,19 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M31" t="n">
-        <v>520.3936629142329</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N31" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O31" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P31" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q31" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J32" t="n">
         <v>507.5704664572298</v>
@@ -37074,13 +37074,13 @@
         <v>944.5714476790951</v>
       </c>
       <c r="L32" t="n">
-        <v>327.4364328183788</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M32" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
-        <v>142.7886079115501</v>
+        <v>343.9413578638473</v>
       </c>
       <c r="O32" t="n">
         <v>1124.911704725796</v>
@@ -37147,7 +37147,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J33" t="n">
-        <v>40.4522501374996</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K33" t="n">
         <v>69.1393386245914</v>
@@ -37165,13 +37165,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P33" t="n">
-        <v>499.0232226299094</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q33" t="n">
         <v>600.8558985798429</v>
       </c>
       <c r="R33" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K34" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L34" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M34" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142329</v>
       </c>
       <c r="N34" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O34" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P34" t="n">
         <v>394.4315932187724</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J35" t="n">
-        <v>507.5704664572298</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K35" t="n">
-        <v>101.7933749940669</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L35" t="n">
-        <v>126.2836828660807</v>
+        <v>948.8745074616049</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
-        <v>437.2547736760381</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O35" t="n">
-        <v>1066.082765511332</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P35" t="n">
         <v>951.7519795583303</v>
@@ -37384,7 +37384,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J36" t="n">
-        <v>40.45225013749963</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K36" t="n">
         <v>69.1393386245914</v>
@@ -37393,22 +37393,22 @@
         <v>92.96637310509811</v>
       </c>
       <c r="M36" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N36" t="n">
         <v>111.3587104082256</v>
       </c>
       <c r="O36" t="n">
-        <v>237.3316053382136</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P36" t="n">
-        <v>909.7640297384505</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J38" t="n">
         <v>507.5704664572298</v>
@@ -37548,19 +37548,19 @@
         <v>101.7933749940669</v>
       </c>
       <c r="L38" t="n">
-        <v>420.7498486305685</v>
+        <v>1066.082765511332</v>
       </c>
       <c r="M38" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
-        <v>142.7886079115501</v>
+        <v>1066.082765511332</v>
       </c>
       <c r="O38" t="n">
-        <v>1066.082765511332</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P38" t="n">
-        <v>951.7519795583303</v>
+        <v>314.3764371464586</v>
       </c>
       <c r="Q38" t="n">
         <v>638.4357623583669</v>
@@ -37621,7 +37621,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J39" t="n">
-        <v>40.45225013749963</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K39" t="n">
         <v>69.1393386245914</v>
@@ -37630,22 +37630,22 @@
         <v>92.96637310509811</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.082765511332</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N39" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O39" t="n">
-        <v>107.7394107638324</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R39" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>112.8326691814002</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K40" t="n">
         <v>319.238368227978</v>
@@ -37709,19 +37709,19 @@
         <v>475.8017225619686</v>
       </c>
       <c r="M40" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N40" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O40" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P40" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J41" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K41" t="n">
-        <v>101.7933749940668</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="L41" t="n">
-        <v>757.3878780277666</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M41" t="n">
         <v>140.5149294492257</v>
@@ -37797,7 +37797,7 @@
         <v>134.8312334426585</v>
       </c>
       <c r="P41" t="n">
-        <v>324.0584530019512</v>
+        <v>299.5681451299374</v>
       </c>
       <c r="Q41" t="n">
         <v>638.4357623583674</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.06860562793317</v>
+        <v>14.74166304161236</v>
       </c>
       <c r="J42" t="n">
-        <v>368.2889420225625</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L42" t="n">
         <v>92.96637310509811</v>
@@ -37870,16 +37870,16 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N42" t="n">
-        <v>602.3020738959109</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O42" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663523</v>
+        <v>571.925256540641</v>
       </c>
       <c r="R42" t="n">
         <v>144.9401608746653</v>
@@ -37949,13 +37949,13 @@
         <v>520.3936629142327</v>
       </c>
       <c r="N43" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O43" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P43" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q43" t="n">
         <v>199.9496610361725</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J44" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7933749940668</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="L44" t="n">
-        <v>757.3878780277666</v>
+        <v>310.7764896835422</v>
       </c>
       <c r="M44" t="n">
         <v>140.5149294492257</v>
@@ -38031,7 +38031,7 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O44" t="n">
-        <v>343.814348132134</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P44" t="n">
         <v>115.0753383124757</v>
@@ -38095,10 +38095,10 @@
         <v>14.74166304161236</v>
       </c>
       <c r="J45" t="n">
-        <v>40.45225013749962</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K45" t="n">
-        <v>756.7489548572958</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
         <v>92.96637310509811</v>
@@ -38107,19 +38107,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O45" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q45" t="n">
-        <v>330.5086737024337</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>112.8326691814003</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K46" t="n">
         <v>319.238368227978</v>
@@ -38183,7 +38183,7 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M46" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N46" t="n">
         <v>501.6566681222641</v>
